--- a/excel_files/Project.xlsx
+++ b/excel_files/Project.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>Add Asset</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AssetName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ProjectName</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +466,8 @@
           <t>my asset</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -466,6 +478,50 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>hellow</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Demo Project</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Demo Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Demo Project</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Demo Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ArcelorMittal Poland SA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Arcelo</t>
         </is>
       </c>
     </row>
